--- a/doc/设计文档/选型参考/器件库.xlsx
+++ b/doc/设计文档/选型参考/器件库.xlsx
@@ -1469,8 +1469,8 @@
   <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I51" sqref="I51"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1552,7 +1552,7 @@
         <v>18</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -1728,7 +1728,7 @@
         <v>43</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1858,7 +1858,7 @@
         <v>65</v>
       </c>
       <c r="G16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1962,7 +1962,7 @@
         <v>74</v>
       </c>
       <c r="G20">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -1988,7 +1988,7 @@
         <v>54</v>
       </c>
       <c r="G21">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H21">
         <v>1</v>

--- a/doc/设计文档/选型参考/器件库.xlsx
+++ b/doc/设计文档/选型参考/器件库.xlsx
@@ -1470,7 +1470,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1728,7 +1728,7 @@
         <v>43</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1754,7 +1754,7 @@
         <v>18</v>
       </c>
       <c r="G11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H11">
         <v>1</v>

--- a/doc/设计文档/选型参考/器件库.xlsx
+++ b/doc/设计文档/选型参考/器件库.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="150">
   <si>
     <t>IC</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -985,10 +985,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AD620电路板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>B2-</t>
     </r>
@@ -1065,10 +1061,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NE5532电路板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>D2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1117,6 +1109,98 @@
         <charset val="134"/>
       </rPr>
       <t>里</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LM358放大器板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AD620放大器板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B2-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NE5532放大器板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三轴传感器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>E2-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>外</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC-DC3A,5V固定输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>E2-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>里</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC-DC3A,1.3A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>E2-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1466,11 +1550,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A56" sqref="A56:XFD56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2005,10 +2089,10 @@
         <v>3</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="G22">
         <v>5</v>
@@ -2017,7 +2101,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="2:9">
@@ -2359,10 +2443,10 @@
         <v>25</v>
       </c>
       <c r="E38" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="G38">
         <v>10</v>
@@ -2371,7 +2455,7 @@
         <v>3</v>
       </c>
       <c r="I38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="2:9">
@@ -2435,7 +2519,7 @@
         <v>46</v>
       </c>
       <c r="E43" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -2444,7 +2528,7 @@
         <v>2</v>
       </c>
       <c r="I43" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44" spans="2:9">
@@ -2527,7 +2611,7 @@
         <v>46</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -2536,30 +2620,30 @@
         <v>2</v>
       </c>
       <c r="I47" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="2:9">
       <c r="B48">
-        <v>20180417</v>
+        <v>20180420</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>3</v>
+        <v>139</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>132</v>
+        <v>46</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H48">
         <v>2</v>
       </c>
       <c r="I48" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="49" spans="2:9">
@@ -2570,10 +2654,10 @@
         <v>3</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -2582,7 +2666,7 @@
         <v>2</v>
       </c>
       <c r="I49" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50" spans="2:9">
@@ -2593,10 +2677,10 @@
         <v>3</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -2605,7 +2689,7 @@
         <v>2</v>
       </c>
       <c r="I50" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51" spans="2:9">
@@ -2613,13 +2697,13 @@
         <v>20180417</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>138</v>
+        <v>3</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -2628,110 +2712,207 @@
         <v>2</v>
       </c>
       <c r="I51" t="s">
-        <v>140</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9">
+      <c r="B52">
+        <v>20180417</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>2</v>
+      </c>
+      <c r="I52" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="53" spans="2:9">
       <c r="B53">
-        <v>20180417</v>
+        <v>20180420</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>3</v>
+        <v>136</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="G53">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H53">
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
     </row>
     <row r="54" spans="2:9">
       <c r="B54">
-        <v>20180417</v>
+        <v>20180420</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>3</v>
+        <v>136</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E54" t="s">
-        <v>100</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>101</v>
+        <v>131</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="G54">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H54">
         <v>2</v>
       </c>
       <c r="I54" t="s">
-        <v>102</v>
+        <v>149</v>
       </c>
     </row>
     <row r="55" spans="2:9">
       <c r="B55">
-        <v>20180417</v>
+        <v>20180420</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>3</v>
+        <v>136</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E55" t="s">
-        <v>107</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>108</v>
+        <v>131</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="G55">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H55">
         <v>2</v>
       </c>
       <c r="I55" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9">
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+    </row>
+    <row r="58" spans="2:9">
+      <c r="B58">
+        <v>20180417</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G58">
+        <v>10</v>
+      </c>
+      <c r="H58">
+        <v>2</v>
+      </c>
+      <c r="I58" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9">
+      <c r="B59">
+        <v>20180417</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E59" t="s">
+        <v>100</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G59">
+        <v>10</v>
+      </c>
+      <c r="H59">
+        <v>2</v>
+      </c>
+      <c r="I59" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9">
+      <c r="B60">
+        <v>20180417</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E60" t="s">
+        <v>107</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G60">
+        <v>4</v>
+      </c>
+      <c r="H60">
+        <v>2</v>
+      </c>
+      <c r="I60" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="2:9">
-      <c r="B56">
+    <row r="61" spans="2:9">
+      <c r="B61">
         <v>20180417</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D56" s="1" t="s">
+      <c r="C61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E61" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F56" s="3" t="s">
+      <c r="F61" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="G61" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H56">
+      <c r="H61">
         <v>2</v>
       </c>
-      <c r="I56" s="1" t="s">
+      <c r="I61" s="1" t="s">
         <v>113</v>
       </c>
     </row>

--- a/doc/设计文档/选型参考/器件库.xlsx
+++ b/doc/设计文档/选型参考/器件库.xlsx
@@ -1553,8 +1553,8 @@
   <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A56" sqref="A56:XFD56"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2614,7 +2614,7 @@
         <v>141</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47">
         <v>2</v>

--- a/doc/设计文档/选型参考/器件库.xlsx
+++ b/doc/设计文档/选型参考/器件库.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="153">
   <si>
     <t>IC</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -503,10 +503,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>C7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -550,14 +546,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -986,7 +974,107 @@
   </si>
   <si>
     <r>
-      <t>B2-</t>
+      <t>ST103</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>核心板</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A2-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>里</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>躺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜂鸣器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜂鸣器黑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电路板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STLink下载器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑分析仪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继电器板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LM358放大器板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AD620放大器板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NE5532放大器板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三轴传感器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>E2-</t>
     </r>
     <r>
       <rPr>
@@ -1001,24 +1089,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>ST103</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>核心板</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>A2-</t>
+    <t>DC-DC3A,5V固定输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>E2-</t>
     </r>
     <r>
       <rPr>
@@ -1033,44 +1109,48 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>USB座</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>躺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜂鸣器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜂鸣器黑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电路板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STLink下载器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>B2-</t>
+    <t>DC-DC3A,1.3A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>E2-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1205S电源模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C3</t>
     </r>
     <r>
       <rPr>
@@ -1085,48 +1165,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>逻辑分析仪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卢安</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>继电器板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>C3-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>里</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卢安</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LM358放大器板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AD620放大器板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>B2-</t>
+    <r>
+      <t>C3</t>
     </r>
     <r>
       <rPr>
@@ -1141,16 +1181,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NE5532放大器板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三轴传感器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>E2-</t>
+    <r>
+      <t>D2-</t>
     </r>
     <r>
       <rPr>
@@ -1165,43 +1197,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DC-DC3A,5V固定输出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>E2-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>里</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DC-DC3A,1.3A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>E2-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中</t>
-    </r>
+    <t>未入器件库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已烧毁，未入库</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1209,7 +1209,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1228,6 +1228,13 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1251,11 +1258,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1550,11 +1558,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:J62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G47" sqref="G47"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1562,6 +1570,7 @@
     <col min="2" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="22.5" customWidth="1"/>
     <col min="6" max="6" width="22.5" style="3" customWidth="1"/>
+    <col min="10" max="10" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1884,10 +1893,10 @@
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G13">
         <v>10</v>
@@ -1896,7 +1905,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1936,10 +1945,10 @@
         <v>57</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -1971,10 +1980,10 @@
         <v>10</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>62</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="2:9">
@@ -1985,22 +1994,22 @@
         <v>3</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" t="s">
         <v>66</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="G18">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>69</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="2:9">
@@ -2011,22 +2020,22 @@
         <v>3</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G19">
         <v>100</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="s">
-        <v>70</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="2:9">
@@ -2037,13 +2046,13 @@
         <v>3</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G20">
         <v>8</v>
@@ -2052,7 +2061,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="2:9">
@@ -2063,7 +2072,7 @@
         <v>3</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E21" t="s">
         <v>51</v>
@@ -2078,7 +2087,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="2:9">
@@ -2089,10 +2098,10 @@
         <v>3</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G22">
         <v>5</v>
@@ -2101,34 +2110,37 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="2:9">
-      <c r="C23" s="1"/>
+      <c r="B23">
+        <v>20180428</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24">
-        <v>20180403</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24">
-        <v>50</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24" t="s">
-        <v>26</v>
-      </c>
+      <c r="C24" s="1"/>
     </row>
     <row r="25" spans="2:9">
       <c r="B25">
@@ -2141,16 +2153,16 @@
         <v>25</v>
       </c>
       <c r="E25" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G25">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="2:9">
@@ -2164,16 +2176,16 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G26">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="2:9">
@@ -2187,16 +2199,16 @@
         <v>25</v>
       </c>
       <c r="E27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G27">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="2:9">
@@ -2210,16 +2222,16 @@
         <v>25</v>
       </c>
       <c r="E28" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G28">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="2:9">
@@ -2233,13 +2245,16 @@
         <v>25</v>
       </c>
       <c r="E29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G29">
-        <v>10</v>
-      </c>
-      <c r="H29" t="s">
-        <v>84</v>
+        <v>20</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="2:9">
@@ -2253,13 +2268,13 @@
         <v>25</v>
       </c>
       <c r="E30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G30">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H30" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="2:9">
@@ -2273,15 +2288,12 @@
         <v>25</v>
       </c>
       <c r="E31" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G31">
-        <v>4</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-      <c r="I31" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2296,21 +2308,21 @@
         <v>25</v>
       </c>
       <c r="E32" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10">
       <c r="B33">
-        <v>20180417</v>
+        <v>20180403</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>3</v>
@@ -2319,19 +2331,19 @@
         <v>25</v>
       </c>
       <c r="E33" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G33">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10">
       <c r="B34">
         <v>20180417</v>
       </c>
@@ -2341,23 +2353,20 @@
       <c r="D34" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>88</v>
+      <c r="E34" t="s">
+        <v>82</v>
       </c>
       <c r="G34">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H34">
         <v>2</v>
       </c>
       <c r="I34" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10">
       <c r="B35">
         <v>20180417</v>
       </c>
@@ -2368,10 +2377,10 @@
         <v>25</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G35">
         <v>8</v>
@@ -2380,10 +2389,10 @@
         <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10">
       <c r="B36">
         <v>20180417</v>
       </c>
@@ -2394,19 +2403,22 @@
         <v>25</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>112</v>
+        <v>87</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G36">
+        <v>8</v>
       </c>
       <c r="H36">
         <v>2</v>
       </c>
-      <c r="I36" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9">
+      <c r="I36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10">
       <c r="B37">
         <v>20180417</v>
       </c>
@@ -2417,22 +2429,19 @@
         <v>25</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="G37">
-        <v>10</v>
+        <v>114</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="H37">
         <v>2</v>
       </c>
-      <c r="I37" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9">
+      <c r="I37" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10">
       <c r="B38">
         <v>20180417</v>
       </c>
@@ -2443,51 +2452,54 @@
         <v>25</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="G38">
         <v>10</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I38" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9">
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="2:9">
-      <c r="B41">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39">
+        <v>20180417</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G39">
+        <v>10</v>
+      </c>
+      <c r="H39">
+        <v>3</v>
+      </c>
+      <c r="I39" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="B42">
         <v>20180403</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E41" t="s">
-        <v>47</v>
-      </c>
-      <c r="G41">
-        <v>14</v>
-      </c>
-      <c r="H41">
-        <v>1</v>
-      </c>
-      <c r="I41" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9">
-      <c r="B42">
-        <v>20180417</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>3</v>
@@ -2496,19 +2508,19 @@
         <v>46</v>
       </c>
       <c r="E42" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10">
       <c r="B43">
         <v>20180417</v>
       </c>
@@ -2519,7 +2531,7 @@
         <v>46</v>
       </c>
       <c r="E43" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -2528,10 +2540,10 @@
         <v>2</v>
       </c>
       <c r="I43" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10">
       <c r="B44">
         <v>20180417</v>
       </c>
@@ -2542,7 +2554,7 @@
         <v>46</v>
       </c>
       <c r="E44" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -2551,10 +2563,10 @@
         <v>2</v>
       </c>
       <c r="I44" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10">
       <c r="B45">
         <v>20180417</v>
       </c>
@@ -2565,7 +2577,7 @@
         <v>46</v>
       </c>
       <c r="E45" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -2574,10 +2586,10 @@
         <v>2</v>
       </c>
       <c r="I45" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10">
       <c r="B46">
         <v>20180417</v>
       </c>
@@ -2587,8 +2599,8 @@
       <c r="D46" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>114</v>
+      <c r="E46" t="s">
+        <v>101</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -2597,10 +2609,10 @@
         <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10">
       <c r="B47">
         <v>20180417</v>
       </c>
@@ -2611,30 +2623,27 @@
         <v>46</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G47">
+        <v>135</v>
+      </c>
+      <c r="G47" s="4">
         <v>0</v>
       </c>
-      <c r="H47">
-        <v>2</v>
-      </c>
-      <c r="I47" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9">
+      <c r="J47" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10">
       <c r="B48">
         <v>20180420</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -2643,10 +2652,10 @@
         <v>2</v>
       </c>
       <c r="I48" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10">
       <c r="B49">
         <v>20180417</v>
       </c>
@@ -2654,10 +2663,10 @@
         <v>3</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -2666,10 +2675,10 @@
         <v>2</v>
       </c>
       <c r="I49" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10">
       <c r="B50">
         <v>20180417</v>
       </c>
@@ -2677,10 +2686,10 @@
         <v>3</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -2689,10 +2698,10 @@
         <v>2</v>
       </c>
       <c r="I50" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10">
       <c r="B51">
         <v>20180417</v>
       </c>
@@ -2700,56 +2709,54 @@
         <v>3</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G51">
-        <v>1</v>
+        <v>130</v>
+      </c>
+      <c r="G51" s="4">
+        <v>0</v>
       </c>
       <c r="H51">
         <v>2</v>
       </c>
       <c r="I51" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10">
       <c r="B52">
         <v>20180417</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G52">
         <v>1</v>
       </c>
-      <c r="H52">
-        <v>2</v>
-      </c>
-      <c r="I52" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9">
+      <c r="I52" s="1"/>
+      <c r="J52" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10">
       <c r="B53">
         <v>20180420</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -2758,44 +2765,44 @@
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10">
       <c r="B54">
-        <v>20180420</v>
+        <v>20180417</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>136</v>
+        <v>3</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>131</v>
+        <v>46</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="G54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H54">
         <v>2</v>
       </c>
       <c r="I54" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10">
       <c r="B55">
         <v>20180420</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -2804,41 +2811,38 @@
         <v>2</v>
       </c>
       <c r="I55" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9">
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-    </row>
-    <row r="58" spans="2:9">
-      <c r="B58">
-        <v>20180417</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G58">
-        <v>10</v>
-      </c>
-      <c r="H58">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10">
+      <c r="B56">
+        <v>20180420</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G56">
         <v>2</v>
       </c>
-      <c r="I58" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9">
+      <c r="H56">
+        <v>2</v>
+      </c>
+      <c r="I56" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10">
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+    </row>
+    <row r="59" spans="2:10">
       <c r="B59">
         <v>20180417</v>
       </c>
@@ -2846,13 +2850,13 @@
         <v>3</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E59" t="s">
-        <v>100</v>
+        <v>93</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G59">
         <v>10</v>
@@ -2861,10 +2865,10 @@
         <v>2</v>
       </c>
       <c r="I59" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10">
       <c r="B60">
         <v>20180417</v>
       </c>
@@ -2872,25 +2876,25 @@
         <v>3</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E60" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="G60">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H60">
         <v>2</v>
       </c>
       <c r="I60" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10">
       <c r="B61">
         <v>20180417</v>
       </c>
@@ -2898,22 +2902,48 @@
         <v>3</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>110</v>
+        <v>93</v>
+      </c>
+      <c r="E61" t="s">
+        <v>104</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
+      </c>
+      <c r="G61">
+        <v>4</v>
       </c>
       <c r="H61">
         <v>2</v>
       </c>
-      <c r="I61" s="1" t="s">
-        <v>113</v>
+      <c r="I61" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10">
+      <c r="B62">
+        <v>20180417</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H62">
+        <v>2</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/doc/设计文档/选型参考/器件库.xlsx
+++ b/doc/设计文档/选型参考/器件库.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="182">
   <si>
     <t>IC</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1202,6 +1202,122 @@
   </si>
   <si>
     <t>已烧毁，未入库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传感器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电流互感器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自产振动传感器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油压传感器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A4-A8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电源接头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5mm短</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电源模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1215S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NE5532</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOP8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温度传感器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光敏电阻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RJ45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无变压器，带灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB9母头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2032电池座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1558,11 +1674,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J62"/>
+  <dimension ref="A1:J75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I50" sqref="I50"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1619,7 +1735,7 @@
         <v>18</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -1847,7 +1963,7 @@
         <v>18</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1858,28 +1974,28 @@
     </row>
     <row r="12" spans="1:9">
       <c r="B12">
-        <v>20180403</v>
+        <v>20180524</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>167</v>
       </c>
       <c r="E12" t="s">
-        <v>58</v>
+        <v>168</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>43</v>
+        <v>169</v>
       </c>
       <c r="G12">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>59</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1893,45 +2009,45 @@
         <v>15</v>
       </c>
       <c r="E13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13">
+        <v>15</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="B14">
+        <v>20180403</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
         <v>74</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="G13">
+      <c r="G14">
         <v>10</v>
       </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="B15">
-        <v>20180403</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G15">
-        <v>10</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1945,19 +2061,19 @@
         <v>57</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="G16">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="2:9">
@@ -1968,22 +2084,22 @@
         <v>3</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" t="s">
-        <v>61</v>
+        <v>57</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="G17">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>149</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="2:9">
@@ -1994,22 +2110,22 @@
         <v>3</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E18" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="G18">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H18">
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="2:9">
@@ -2020,22 +2136,22 @@
         <v>3</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>67</v>
       </c>
       <c r="G19">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="H19">
         <v>2</v>
       </c>
       <c r="I19" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="2:9">
@@ -2046,22 +2162,22 @@
         <v>3</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G20">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>73</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="2:9">
@@ -2072,13 +2188,13 @@
         <v>3</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="E21" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="G21">
         <v>8</v>
@@ -2087,83 +2203,86 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="2:9">
       <c r="B22">
-        <v>20180417</v>
+        <v>20180403</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>125</v>
+        <v>113</v>
+      </c>
+      <c r="E22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="G22">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>126</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="2:9">
       <c r="B23">
+        <v>20180417</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G23">
+        <v>5</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24">
         <v>20180428</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="1" t="s">
+      <c r="C24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="G23">
-        <v>3</v>
-      </c>
-      <c r="H23">
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="H24">
         <v>2</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I24" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="2:9">
-      <c r="C24" s="1"/>
-    </row>
     <row r="25" spans="2:9">
-      <c r="B25">
-        <v>20180403</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" t="s">
-        <v>35</v>
-      </c>
-      <c r="G25">
-        <v>50</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25" t="s">
-        <v>26</v>
-      </c>
+      <c r="C25" s="1"/>
     </row>
     <row r="26" spans="2:9">
       <c r="B26">
@@ -2176,16 +2295,16 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G26">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="2:9">
@@ -2199,16 +2318,16 @@
         <v>25</v>
       </c>
       <c r="E27" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G27">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="2:9">
@@ -2222,16 +2341,16 @@
         <v>25</v>
       </c>
       <c r="E28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G28">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="2:9">
@@ -2245,16 +2364,16 @@
         <v>25</v>
       </c>
       <c r="E29" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G29">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="2:9">
@@ -2268,13 +2387,16 @@
         <v>25</v>
       </c>
       <c r="E30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G30">
-        <v>10</v>
-      </c>
-      <c r="H30" t="s">
-        <v>81</v>
+        <v>20</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="2:9">
@@ -2288,10 +2410,10 @@
         <v>25</v>
       </c>
       <c r="E31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G31">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H31" t="s">
         <v>81</v>
@@ -2308,16 +2430,13 @@
         <v>25</v>
       </c>
       <c r="E32" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G32">
-        <v>4</v>
-      </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-      <c r="I32" t="s">
-        <v>78</v>
+        <v>9</v>
+      </c>
+      <c r="H32" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="2:10">
@@ -2331,21 +2450,21 @@
         <v>25</v>
       </c>
       <c r="E33" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="2:10">
       <c r="B34">
-        <v>20180417</v>
+        <v>20180403</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>3</v>
@@ -2354,16 +2473,16 @@
         <v>25</v>
       </c>
       <c r="E34" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G34">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="2:10">
@@ -2376,20 +2495,17 @@
       <c r="D35" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>85</v>
+      <c r="E35" t="s">
+        <v>82</v>
       </c>
       <c r="G35">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H35">
         <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="2:10">
@@ -2403,10 +2519,10 @@
         <v>25</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G36">
         <v>8</v>
@@ -2415,7 +2531,7 @@
         <v>2</v>
       </c>
       <c r="I36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="2:10">
@@ -2429,16 +2545,19 @@
         <v>25</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>109</v>
+        <v>87</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G37">
+        <v>8</v>
       </c>
       <c r="H37">
         <v>2</v>
       </c>
-      <c r="I37" s="1" t="s">
-        <v>115</v>
+      <c r="I37" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="2:10">
@@ -2452,19 +2571,16 @@
         <v>25</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G38">
-        <v>10</v>
+        <v>114</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="H38">
         <v>2</v>
       </c>
-      <c r="I38" t="s">
-        <v>118</v>
+      <c r="I38" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="2:10">
@@ -2478,51 +2594,54 @@
         <v>25</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="G39">
         <v>10</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I39" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40">
+        <v>20180417</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G40">
+        <v>10</v>
+      </c>
+      <c r="H40">
+        <v>3</v>
+      </c>
+      <c r="I40" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="41" spans="2:10">
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-    </row>
     <row r="42" spans="2:10">
-      <c r="B42">
-        <v>20180403</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E42" t="s">
-        <v>47</v>
-      </c>
-      <c r="G42">
-        <v>14</v>
-      </c>
-      <c r="H42">
-        <v>1</v>
-      </c>
-      <c r="I42" t="s">
-        <v>48</v>
-      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
     </row>
     <row r="43" spans="2:10">
       <c r="B43">
-        <v>20180417</v>
+        <v>20180403</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>3</v>
@@ -2531,16 +2650,16 @@
         <v>46</v>
       </c>
       <c r="E43" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="2:10">
@@ -2554,7 +2673,7 @@
         <v>46</v>
       </c>
       <c r="E44" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -2563,7 +2682,7 @@
         <v>2</v>
       </c>
       <c r="I44" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="2:10">
@@ -2577,7 +2696,7 @@
         <v>46</v>
       </c>
       <c r="E45" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -2586,7 +2705,7 @@
         <v>2</v>
       </c>
       <c r="I45" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="2:10">
@@ -2600,7 +2719,7 @@
         <v>46</v>
       </c>
       <c r="E46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -2609,7 +2728,7 @@
         <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="2:10">
@@ -2622,60 +2741,60 @@
       <c r="D47" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G47" s="4">
-        <v>0</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>152</v>
+      <c r="E47" t="s">
+        <v>101</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>2</v>
+      </c>
+      <c r="I47" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="48" spans="2:10">
       <c r="B48">
-        <v>20180420</v>
+        <v>20180417</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>133</v>
+        <v>3</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G48">
-        <v>2</v>
-      </c>
-      <c r="H48">
-        <v>2</v>
-      </c>
-      <c r="I48" t="s">
-        <v>150</v>
+        <v>135</v>
+      </c>
+      <c r="G48" s="4">
+        <v>0</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="49" spans="2:10">
       <c r="B49">
-        <v>20180417</v>
+        <v>20180420</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>3</v>
+        <v>133</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>127</v>
+        <v>46</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H49">
         <v>2</v>
       </c>
       <c r="I49" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" spans="2:10">
@@ -2689,7 +2808,7 @@
         <v>127</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -2698,7 +2817,7 @@
         <v>2</v>
       </c>
       <c r="I50" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51" spans="2:10">
@@ -2712,16 +2831,16 @@
         <v>127</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G51" s="4">
-        <v>0</v>
+        <v>129</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
       </c>
       <c r="H51">
         <v>2</v>
       </c>
       <c r="I51" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
     </row>
     <row r="52" spans="2:10">
@@ -2729,25 +2848,27 @@
         <v>20180417</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>131</v>
+        <v>3</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>127</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G52">
-        <v>1</v>
-      </c>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1" t="s">
-        <v>151</v>
+        <v>130</v>
+      </c>
+      <c r="G52" s="4">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>2</v>
+      </c>
+      <c r="I52" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="53" spans="2:10">
       <c r="B53">
-        <v>20180420</v>
+        <v>20180417</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>131</v>
@@ -2756,30 +2877,28 @@
         <v>127</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G53">
         <v>1</v>
       </c>
-      <c r="H53">
-        <v>2</v>
-      </c>
-      <c r="I53" t="s">
-        <v>103</v>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="54" spans="2:10">
       <c r="B54">
-        <v>20180417</v>
+        <v>20180420</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>3</v>
+        <v>131</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -2788,30 +2907,30 @@
         <v>2</v>
       </c>
       <c r="I54" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" spans="2:10">
       <c r="B55">
-        <v>20180420</v>
+        <v>20180417</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>131</v>
+        <v>3</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>127</v>
+        <v>46</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="G55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H55">
         <v>2</v>
       </c>
       <c r="I55" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="56" spans="2:10">
@@ -2825,7 +2944,7 @@
         <v>127</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G56">
         <v>2</v>
@@ -2834,39 +2953,36 @@
         <v>2</v>
       </c>
       <c r="I56" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10">
+      <c r="B57">
+        <v>20180420</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G57">
+        <v>2</v>
+      </c>
+      <c r="H57">
+        <v>2</v>
+      </c>
+      <c r="I57" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="57" spans="2:10">
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-    </row>
-    <row r="59" spans="2:10">
-      <c r="B59">
-        <v>20180417</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G59">
-        <v>10</v>
-      </c>
-      <c r="H59">
-        <v>2</v>
-      </c>
-      <c r="I59" t="s">
-        <v>96</v>
-      </c>
+    <row r="58" spans="2:10">
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
     </row>
     <row r="60" spans="2:10">
       <c r="B60">
@@ -2878,11 +2994,11 @@
       <c r="D60" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E60" t="s">
-        <v>97</v>
+      <c r="E60" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G60">
         <v>10</v>
@@ -2891,7 +3007,7 @@
         <v>2</v>
       </c>
       <c r="I60" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="61" spans="2:10">
@@ -2905,19 +3021,19 @@
         <v>93</v>
       </c>
       <c r="E61" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G61">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H61">
         <v>2</v>
       </c>
       <c r="I61" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62" spans="2:10">
@@ -2930,20 +3046,279 @@
       <c r="D62" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>107</v>
+      <c r="E62" t="s">
+        <v>104</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
+      </c>
+      <c r="G62">
+        <v>4</v>
       </c>
       <c r="H62">
         <v>2</v>
       </c>
-      <c r="I62" s="1" t="s">
+      <c r="I62" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10">
+      <c r="B63">
+        <v>20180417</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H63">
+        <v>2</v>
+      </c>
+      <c r="I63" s="1" t="s">
         <v>110</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9">
+      <c r="B66">
+        <v>20180524</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G66">
+        <v>3</v>
+      </c>
+      <c r="H66">
+        <v>3</v>
+      </c>
+      <c r="I66" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9">
+      <c r="B67">
+        <v>20180524</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>3</v>
+      </c>
+      <c r="I67" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9">
+      <c r="B68">
+        <v>20180524</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>3</v>
+      </c>
+      <c r="I68" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9">
+      <c r="B69">
+        <v>20180524</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G69">
+        <v>7</v>
+      </c>
+      <c r="H69">
+        <v>3</v>
+      </c>
+      <c r="I69" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9">
+      <c r="B70">
+        <v>20180524</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G70">
+        <v>2</v>
+      </c>
+      <c r="H70">
+        <v>3</v>
+      </c>
+      <c r="I70" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9">
+      <c r="B71">
+        <v>20180524</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G71">
+        <v>2</v>
+      </c>
+      <c r="H71">
+        <v>3</v>
+      </c>
+      <c r="I71" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9">
+      <c r="B72">
+        <v>20180524</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>3</v>
+      </c>
+      <c r="I72" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9">
+      <c r="B73">
+        <v>20180524</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G73">
+        <v>10</v>
+      </c>
+      <c r="H73">
+        <v>3</v>
+      </c>
+      <c r="I73" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9">
+      <c r="B74">
+        <v>20180524</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G74">
+        <v>5</v>
+      </c>
+      <c r="H74">
+        <v>3</v>
+      </c>
+      <c r="I74" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9">
+      <c r="B75">
+        <v>20180524</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G75">
+        <v>10</v>
+      </c>
+      <c r="H75">
+        <v>3</v>
+      </c>
+      <c r="I75" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
